--- a/30-Jun-2023/breast-cancer.xlsx
+++ b/30-Jun-2023/breast-cancer.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taqua\My-Repo\HK9\He-thong-thong-tin-thong-minh-1\30-Jun-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2AC72DB0-FEA2-4139-A267-8ED48A5AC188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{758C84A3-ED02-4D20-A16E-86203C1A9C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="breast-cancer" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'breast-cancer'!$A$1:$J$287</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -988,10 +991,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J287"/>
+  <dimension ref="A1:K287"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1007,7 +1011,7 @@
     <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1038,8 +1042,12 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1">
+        <f>AVERAGE(G2:G202)</f>
+        <v>1.9054726368159205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1071,7 +1079,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1103,7 +1111,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1135,7 +1143,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1167,7 +1175,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
@@ -1199,7 +1207,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
@@ -1231,7 +1239,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1263,7 +1271,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1295,7 +1303,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1327,7 +1335,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0</v>
       </c>
@@ -1359,7 +1367,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0</v>
       </c>
@@ -1391,7 +1399,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0</v>
       </c>
@@ -1423,7 +1431,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0</v>
       </c>
@@ -1455,7 +1463,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0</v>
       </c>
@@ -1487,7 +1495,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0</v>
       </c>
@@ -10192,6 +10200,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J287"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>